--- a/data/income_statement/2digits/size/59_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/59_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>59-Motion picture, video and television programme production, sound recording and music publishing activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>59-Motion picture, video and television programme production, sound recording and music publishing activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,644 +841,729 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>222872.89827</v>
+        <v>250349.65361</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>234631.33988</v>
+        <v>256674.77088</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>272255.81711</v>
+        <v>299972.53573</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>330290.39948</v>
+        <v>365873.61128</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>353964.34845</v>
+        <v>389113.12372</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>378523.96212</v>
+        <v>415366.07409</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>420349.8007200001</v>
+        <v>481970.97887</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>453711.6309</v>
+        <v>519245.5332900001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>421844.8046499999</v>
+        <v>492602.92241</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>944207.81577</v>
+        <v>1053063.65226</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>882607.0186299999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1044817.79655</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1165084.59</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>210193.33913</v>
+        <v>236119.33977</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>219262.8013</v>
+        <v>239425.94176</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>255870.87449</v>
+        <v>280540.71384</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>312499.7899100001</v>
+        <v>343923.82722</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>334697.22762</v>
+        <v>366174.18439</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>357575.80617</v>
+        <v>389104.42736</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>396318.72111</v>
+        <v>451717.5443599999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>428539.40391</v>
+        <v>485468.56976</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>393891.30281</v>
+        <v>455862.07576</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>875318.29561</v>
+        <v>965260.00567</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>776652.7746</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>926670.28981</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1036518.28</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>7056.13841</v>
+        <v>7257.943969999999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>11061.73232</v>
+        <v>11133.50893</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>9165.809059999998</v>
+        <v>10544.11932</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>11977.35756</v>
+        <v>13094.17374</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>10406.51367</v>
+        <v>11867.3683</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>12427.01659</v>
+        <v>15002.71344</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>18509.10149</v>
+        <v>20760.59305</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>14062.35211</v>
+        <v>18192.15832</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>19082.14286</v>
+        <v>24552.67999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>48104.46384</v>
+        <v>59678.32364</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>80885.17286000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>86511.26703</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>91351.584</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>5623.420730000001</v>
+        <v>6972.36987</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>4306.806259999999</v>
+        <v>6115.320189999999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>7219.133559999999</v>
+        <v>8887.702569999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>5813.25201</v>
+        <v>8855.61032</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>8860.60716</v>
+        <v>11071.57103</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>8521.139359999999</v>
+        <v>11258.93329</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>5521.97812</v>
+        <v>9492.841460000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>11109.87488</v>
+        <v>15584.80521</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>8871.358980000001</v>
+        <v>12188.16666</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>20785.05632</v>
+        <v>28125.32295</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>25069.07117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>31636.23971</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>37214.726</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2544.17431</v>
+        <v>3075.90534</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1851.26141</v>
+        <v>2021.68991</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1879.27174</v>
+        <v>2178.69327</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1998.47146</v>
+        <v>2280.23607</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2353.8447</v>
+        <v>2929.21098</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2000.97431</v>
+        <v>2789.43241</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2231.84573</v>
+        <v>3148.55623</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>2686.22197</v>
+        <v>3495.19096</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>2405.20235</v>
+        <v>2998.5791</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>4014.76945</v>
+        <v>8992.208129999999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>6433.51741</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>7258.373860000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>19103.886</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2505.98726</v>
+        <v>3030.6821</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1818.1656</v>
+        <v>1986.02559</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1763.42974</v>
+        <v>2058.88805</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1835.85827</v>
+        <v>2101.68204</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>2211.37557</v>
+        <v>2666.14229</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1754.97781</v>
+        <v>2535.89904</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>2167.22599</v>
+        <v>3064.03267</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>2460.22278</v>
+        <v>3268.47105</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>2368.85042</v>
+        <v>2956.81982</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>2382.2093</v>
+        <v>6238.02114</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>5408.02804</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>6179.328300000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>15113.001</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>28.43023</v>
+        <v>29.93333</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>9.88998</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>33.1869</v>
+        <v>34.25821</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>147.03287</v>
+        <v>155.78218</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>16.99168</v>
+        <v>62.03381</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>207.35135</v>
+        <v>214.88822</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>41.48799</v>
+        <v>59.38171</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>223.67501</v>
+        <v>224.39573</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>22.41778</v>
+        <v>23.52481</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>808.32393</v>
+        <v>1926.95077</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>961.45758</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1015.01377</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3881.539</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>9.756819999999999</v>
+        <v>15.28991</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>23.20583</v>
+        <v>25.77434</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>82.65509999999999</v>
+        <v>85.54701</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>15.58032</v>
+        <v>22.77185</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>125.47745</v>
+        <v>201.03488</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>38.64515</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>23.13175</v>
+        <v>25.14185</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>2.32418</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>13.93415</v>
+        <v>18.23447</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>824.23622</v>
+        <v>827.23622</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>64.03179</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>109.346</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>220328.72396</v>
+        <v>247273.74827</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>232780.07847</v>
+        <v>254653.08097</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>270376.54537</v>
+        <v>297793.84246</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>328291.92802</v>
+        <v>363593.37521</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>351610.50375</v>
+        <v>386183.91274</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>376522.98781</v>
+        <v>412576.64168</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>418117.95499</v>
+        <v>478822.42264</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>451025.40893</v>
+        <v>515750.34233</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>419439.6023</v>
+        <v>489604.34331</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>940193.04632</v>
+        <v>1044071.44413</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>876173.50122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1037559.42269</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1145980.704</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>156738.34355</v>
+        <v>176068.67912</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>166298.96375</v>
+        <v>180466.10132</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>193440.09943</v>
+        <v>218069.86123</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>249588.15725</v>
+        <v>268588.19179</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>265752.45569</v>
+        <v>287568.57745</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>262874.73598</v>
+        <v>290385.68576</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>303503.61918</v>
+        <v>339249.6734199999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>328309.05911</v>
+        <v>376849.02872</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>296865.29941</v>
+        <v>339360.97821</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>675532.9098500001</v>
+        <v>743194.17453</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>613884.94874</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>732525.29708</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>782463.6850000001</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>8276.446480000001</v>
+        <v>8696.34383</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>4295.86029</v>
+        <v>6019.27792</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>5900.77524</v>
+        <v>8169.52316</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>5661.67325</v>
+        <v>6591.187309999999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>8035.65936</v>
+        <v>10292.69261</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>4164.93417</v>
+        <v>4721.29537</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>4565.38687</v>
+        <v>6551.8803</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>6437.9211</v>
+        <v>7938.17665</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>5330.12099</v>
+        <v>7531.62701</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>10437.3646</v>
+        <v>13555.61535</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>13587.02493</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>14165.55725</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>11677.523</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>21124.44868</v>
+        <v>23174.35376</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>20583.52515</v>
+        <v>22926.69342</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>14555.23015</v>
+        <v>17934.75343</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>33555.78965</v>
+        <v>36222.13319</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>68469.10575</v>
+        <v>71999.02776000001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>34235.40135</v>
+        <v>36848.48568</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>71029.76612</v>
+        <v>76813.34896999999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>44622.86644999999</v>
+        <v>53561.85317</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>71753.10262000001</v>
+        <v>76625.48772999999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>87170.11618000001</v>
+        <v>100848.85946</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>78168.9844</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>102393.06083</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>115254.463</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>126562.9994</v>
+        <v>140457.56838</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>140630.71418</v>
+        <v>150363.33223</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>172172.34249</v>
+        <v>191005.84422</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>209293.2249</v>
+        <v>224694.70913</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>188678.37353</v>
+        <v>204164.98355</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>222411.94793</v>
+        <v>246497.03192</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>227308.22499</v>
+        <v>254254.82826</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>275795.08614</v>
+        <v>313681.68648</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>216346.3049</v>
+        <v>251404.88722</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>575118.6070900001</v>
+        <v>625982.87774</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>521217.69265</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>614935.3642599999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>644856.289</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>774.44899</v>
+        <v>3740.41315</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>788.86413</v>
+        <v>1156.79775</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>811.7515500000001</v>
+        <v>959.7404200000001</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1077.46945</v>
+        <v>1080.16216</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>569.31705</v>
+        <v>1111.87353</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>2062.45253</v>
+        <v>2318.87279</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>600.2411999999999</v>
+        <v>1629.61589</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1453.18542</v>
+        <v>1667.31242</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>3435.7709</v>
+        <v>3798.97625</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>2806.82198</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>911.24676</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1031.31474</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>10675.41</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>63590.38041</v>
+        <v>71205.06915</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>66481.11472</v>
+        <v>74186.97965000001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>76936.44593999999</v>
+        <v>79723.98123</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>78703.77077</v>
+        <v>95005.18342</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>85858.04806</v>
+        <v>98615.33528999999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>113648.25183</v>
+        <v>122190.95592</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>114614.33581</v>
+        <v>139572.74922</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>122716.34982</v>
+        <v>138901.31361</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>122574.30289</v>
+        <v>150243.3651</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>264660.13647</v>
+        <v>300877.2696</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>262288.55248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>305034.12561</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>363517.019</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>61602.7261</v>
+        <v>73514.92379</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>62691.59022999999</v>
+        <v>89010.99887000001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>76465.64519</v>
+        <v>91476.82153999999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>79382.14592</v>
+        <v>100787.3141</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>87392.83883999998</v>
+        <v>104661.10619</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>104435.06288</v>
+        <v>125334.69685</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>122596.96817</v>
+        <v>154116.10839</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>137790.22332</v>
+        <v>170279.96378</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>136524.84911</v>
+        <v>183598.14224</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>225484.53254</v>
+        <v>273629.03523</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>252560.79047</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>295943.66505</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>313190.395</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>366.13585</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>204.8667</v>
+        <v>529.3945799999999</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>52.98141</v>
@@ -1592,13 +1578,13 @@
         <v>330.66041</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>48.60241000000001</v>
+        <v>126.25144</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>57.44592</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>58.61576</v>
+        <v>137.88393</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>1041.62569</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>781.50413</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>1544.313</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>11028.3057</v>
+        <v>11829.4357</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>9215.31733</v>
+        <v>9608.997220000001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>9456.52857</v>
+        <v>11298.10052</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>8843.962220000001</v>
+        <v>9634.292140000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>12506.28741</v>
+        <v>13414.01449</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>14098.53535</v>
+        <v>15358.5171</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>11842.89658</v>
+        <v>14859.19083</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>11161.87912</v>
+        <v>14004.04201</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>13345.25991</v>
+        <v>17066.9321</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>26478.94156</v>
+        <v>30130.28392</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>29565.18857</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>34954.27254999999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>34942.228</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>50208.28455</v>
+        <v>61319.35224</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>53271.4062</v>
+        <v>78872.60707</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>66956.13521000001</v>
+        <v>80125.73961</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>69636.55640999999</v>
+        <v>90251.39467000001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>74850.45329999999</v>
+        <v>91210.99356999999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>90005.86712000001</v>
+        <v>109645.51934</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>110705.46918</v>
+        <v>139130.66612</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>126570.89828</v>
+        <v>156218.47585</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>123120.97344</v>
+        <v>166393.32621</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>197963.96529</v>
+        <v>242457.12562</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>222214.09777</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>260207.88837</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>276703.854</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1987.65431</v>
+        <v>-2309.85464</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>3789.52449</v>
+        <v>-14824.01922</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>470.80075</v>
+        <v>-11752.84031</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-678.37515</v>
+        <v>-5782.130679999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-1534.79078</v>
+        <v>-6045.7709</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>9213.18895</v>
+        <v>-3143.740929999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-7982.632360000001</v>
+        <v>-14543.35917</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-15073.8735</v>
+        <v>-31378.65017</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-13950.54622</v>
+        <v>-33354.77714</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>39175.60393</v>
+        <v>27248.23437</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>9727.76201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>9090.46056</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>50326.624</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>3652.62739</v>
+        <v>8770.877130000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2441.35951</v>
+        <v>7519.182769999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>3337.86489</v>
+        <v>7670.512159999999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2985.3911</v>
+        <v>11870.87359</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1993.04804</v>
+        <v>10159.28251</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>3138.04394</v>
+        <v>9082.952439999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>4993.06328</v>
+        <v>30930.82314</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>8163.675740000001</v>
+        <v>58220.65845</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>7857.12171</v>
+        <v>63221.906</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>25828.03858</v>
+        <v>68851.90264</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>15279.45286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>51899.70817000001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>70840.515</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>210.00124</v>
@@ -1775,7 +1786,7 @@
         <v>142.54581</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>0</v>
+        <v>263.93494</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>0.84126</v>
@@ -1790,7 +1801,7 @@
         <v>3.5</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>0</v>
+        <v>8160.70227</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>0</v>
@@ -1799,97 +1810,112 @@
         <v>0</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>9149.910800000001</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>12175.412</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0.22578</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>0</v>
+        <v>13.83995</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>0</v>
+        <v>13.83975</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>1169.52124</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0</v>
+        <v>685.49257</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>164.3</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>0</v>
+        <v>3032.1842</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>769.52737</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>742.16461</v>
+        <v>1453.46589</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>544.74112</v>
+        <v>2218.41557</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>777.3712300000001</v>
+        <v>2267.09205</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>885.12474</v>
+        <v>3516.28414</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>615.5438600000001</v>
+        <v>2594.20826</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>978.02441</v>
+        <v>3430.82306</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1042.71443</v>
+        <v>4024.24327</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1393.92101</v>
+        <v>6515.21483</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1217.4037</v>
+        <v>14016.12125</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>5550.64143</v>
+        <v>11289.20682</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>4799.54501</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>12364.76011</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>8092.261</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>63.5</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>0</v>
@@ -1898,16 +1924,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>23.76876</v>
+        <v>23.93374</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>25.57869</v>
+        <v>27.19497</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>16.00635</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>10.12667</v>
+        <v>1000.64667</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>0.24191</v>
@@ -1916,130 +1942,150 @@
         <v>19.71667</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1.83354</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>7.8517</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>28.456</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>31.84965</v>
+        <v>1014.22505</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>101.52076</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>35.17923</v>
+        <v>236.3931</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>0</v>
+        <v>200.63074</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>115.65322</v>
+        <v>316.28396</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>28.92395</v>
+        <v>229.55469</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5.2</v>
+        <v>33.0001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>77.93657</v>
+        <v>83.83657000000001</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>40</v>
+        <v>435.77018</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>229.61234</v>
+        <v>280.93077</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>207.99762</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>644.8950699999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>967.458</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>103.18432</v>
+        <v>271.18967</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>24.85957</v>
+        <v>328.84302</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>49.43286</v>
+        <v>157.23008</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>68.59268</v>
+        <v>183.77432</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>28.06653</v>
+        <v>143.45277</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>72.03055999999999</v>
+        <v>267.53499</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>79.27292000000001</v>
+        <v>2088.78492</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>69.07575999999999</v>
+        <v>1111.00717</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>349.13576</v>
+        <v>358.75107</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>164.25128</v>
+        <v>206.29369</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>287.60067</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>614.6634799999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>2263.056</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>941.2145800000001</v>
+        <v>2347.44886</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>722.8670400000001</v>
+        <v>3201.98968</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>746.65792</v>
+        <v>2893.36627</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>817.77376</v>
+        <v>5040.02234</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>864.2409800000001</v>
+        <v>5785.87125</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1581.05209</v>
+        <v>3517.79246</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2425.71379</v>
+        <v>19739.00642</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3793.89539</v>
+        <v>19370.12488</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>2518.812809999999</v>
+        <v>39921.75977</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>14926.02714</v>
+        <v>50953.34355</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>5144.919269999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>22177.13259</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>41046.227</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2060,13 +2106,13 @@
         <v>2.10131</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>1.62352</v>
+        <v>96.16103</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>12.82902</v>
+        <v>15.10902</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>0</v>
+        <v>542.72887</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>1006.11216</v>
@@ -2074,14 +2120,19 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>0</v>
+        <v>47.79973</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>0</v>
@@ -2113,188 +2164,213 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>1560.48721</v>
+        <v>3363.02091</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>904.82521</v>
+        <v>1511.60298</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1722.65327</v>
+        <v>1832.08559</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1213.05866</v>
+        <v>1759.79955</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>340.55926</v>
+        <v>1290.3171</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>443.34706</v>
+        <v>915.47252</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1417.56542</v>
+        <v>4928.6542</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2805.82812</v>
+        <v>21799.65384</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>3713.49447</v>
+        <v>4896.31569</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>3931.67756</v>
+        <v>5096.29898</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>4837.55675</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>6170.96705</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>6267.645</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1298.59216</v>
+        <v>2992.77828</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1071.99183</v>
+        <v>3818.63021</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2357.98872</v>
+        <v>7988.38553</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1471.18661</v>
+        <v>2263.49624</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2523.96612</v>
+        <v>3924.24079</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2341.59053</v>
+        <v>6024.17445</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2148.55763</v>
+        <v>21352.25268</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>11479.51177</v>
+        <v>25374.42365</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>4739.58181</v>
+        <v>13931.31652</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>18124.62078</v>
+        <v>63688.85513</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>11312.12569</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>24876.12807</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>41380.45</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>120.14649</v>
+        <v>144.71791</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>177.81331</v>
+        <v>178.66068</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>198.17704</v>
+        <v>220.41986</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>92.16153999999999</v>
+        <v>102.54266</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>24.16172</v>
+        <v>37.1735</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>51.36528</v>
+        <v>56.4743</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>59.68496</v>
+        <v>62.25703</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>241.47651</v>
+        <v>446.22117</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>595.54372</v>
+        <v>605.2096599999999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>831.22097</v>
+        <v>942.26156</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>198.91042</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>317.73979</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>151.522</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>155.68482</v>
+        <v>294.14249</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>58.00032000000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>41.95713</v>
+        <v>43.07163</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>247.16419</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>158.69585</v>
+        <v>387.8354</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>178.2314</v>
+        <v>197.75879</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>173.35383</v>
+        <v>201.30146</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>878.25551</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>545.77289</v>
+        <v>801.1181800000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>886.80513</v>
+        <v>2061.82096</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1486.75609</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>2626.9215</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>5071.712</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>14.64822</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>0</v>
+        <v>90.62300999999999</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>4.480090000000001</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>1.68136</v>
+        <v>26.78396</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>0.15734</v>
+        <v>4.69522</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>10.19942</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>6.351310000000001</v>
+        <v>428.45147</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>5426.46309</v>
@@ -2306,52 +2382,62 @@
         <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>0.2349</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>31.43675</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>134.078</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>772.70222</v>
+        <v>1996.6118</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>646.7374400000001</v>
+        <v>3244.64569</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1311.79152</v>
+        <v>6863.70615</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>607.27111</v>
+        <v>1223.16126</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1869.47619</v>
+        <v>2643.42124</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1399.98981</v>
+        <v>4148.14038</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1765.2219</v>
+        <v>18134.41972</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>4234.840520000001</v>
+        <v>17266.09818</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>3048.15759</v>
+        <v>10670.80118</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>14868.9375</v>
+        <v>59097.0525</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>6255.508100000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>18022.12352</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>31874.135</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0.03833</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>97.80280999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,245 +2516,280 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>235.37208</v>
+        <v>542.6195300000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>184.25276</v>
+        <v>241.51251</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>795.63598</v>
+        <v>850.76084</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>522.88981</v>
+        <v>663.82557</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>470.90529</v>
+        <v>850.5456999999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>697.86635</v>
+        <v>1607.66329</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>143.82981</v>
+        <v>2525.70718</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>698.47614</v>
+        <v>1357.3857</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>539.51927</v>
+        <v>1843.59916</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1537.65718</v>
+        <v>1587.72011</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>3272.91337</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>3780.1037</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>4149.003</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>1176.04574</v>
+        <v>6634.63554</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1103.69846</v>
+        <v>7688.6241</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1848.78132</v>
+        <v>15755.81704</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1929.00105</v>
+        <v>8010.37508</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2230.37818</v>
+        <v>4924.294789999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>2170.37553</v>
+        <v>8193.181970000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>2114.41668</v>
+        <v>8521.256029999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2690.71685</v>
+        <v>10699.6922</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1919.53276</v>
+        <v>9168.79646</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>9964.271480000001</v>
+        <v>26875.62558</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>12029.34235</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>23570.45305</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>20575.641</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>1101.00219</v>
+        <v>6517.11275</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1062.30409</v>
+        <v>6624.77174</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1816.09931</v>
+        <v>15703.13503</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1898.96429</v>
+        <v>7706.341</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>2111.76925</v>
+        <v>4803.98171</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>2022.33774</v>
+        <v>6503.35954</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>2070.0968</v>
+        <v>7985.67055</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>2660.45352</v>
+        <v>10101.10835</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1906.71143</v>
+        <v>9010.173769999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>9659.88939</v>
+        <v>24042.70877</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>11718.17049</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>22218.9687</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>19003.085</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>75.04355</v>
+        <v>117.52279</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>41.39437</v>
+        <v>1063.85236</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>32.68201</v>
+        <v>52.68201000000001</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>30.03676</v>
+        <v>304.03408</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>118.60893</v>
+        <v>120.31308</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>148.03779</v>
+        <v>1689.82243</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>44.31988</v>
+        <v>535.58548</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>30.26333</v>
+        <v>598.58385</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>12.82133</v>
+        <v>158.62269</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>304.38209</v>
+        <v>2832.91681</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>311.17186</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1351.48435</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1572.556</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>3165.6438</v>
+        <v>-3166.39133</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>4055.19371</v>
+        <v>-18812.09076</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-398.1044</v>
+        <v>-27826.53072</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-1093.17171</v>
+        <v>-4185.12841</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-4296.08704</v>
+        <v>-4735.02397</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>7839.26683</v>
+        <v>-8278.144909999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-7252.54339</v>
+        <v>-13486.04474</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-21080.42638</v>
+        <v>-9232.107569999996</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-12752.53908</v>
+        <v>6767.015880000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>36914.75025</v>
+        <v>5535.6563</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1665.74683</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>12543.58761</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>59211.048</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1900.94561</v>
+        <v>2671.04049</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1119.66815</v>
+        <v>11714.56596</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>2638.84899</v>
+        <v>3949.3192</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>2563.98629</v>
+        <v>5911.29279</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>2326.36374</v>
+        <v>3194.95778</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>3855.29563</v>
+        <v>12340.87511</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3746.723730000001</v>
+        <v>10905.63716</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>3755.55505</v>
+        <v>7565.57738</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>3900.84359</v>
+        <v>13735.26631</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>7635.50233</v>
+        <v>19216.33541</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>10376.35888</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>14066.73943</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>71012.675</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>194.97841</v>
@@ -2672,115 +2798,130 @@
         <v>4.21225</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1.30774</v>
+        <v>13.17591</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>22.72188</v>
+        <v>206.05532</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>300.19059</v>
+        <v>300.66253</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>151.08832</v>
+        <v>151.13881</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>665.53463</v>
+        <v>666.91475</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>45.46377</v>
+        <v>514.10597</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>20.37143</v>
+        <v>31.99558</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>30.88366</v>
+        <v>31.41098</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>800.0284099999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>22.707</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1705.9672</v>
+        <v>2476.06208</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1115.4559</v>
+        <v>11710.35371</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>2637.54125</v>
+        <v>3936.14329</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>2541.26441</v>
+        <v>5705.23747</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>2026.17315</v>
+        <v>2894.29525</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>3704.20731</v>
+        <v>12189.7363</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>3081.1891</v>
+        <v>10238.72241</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>3710.09128</v>
+        <v>7051.47141</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>3880.47216</v>
+        <v>13703.27073</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>7604.61867</v>
+        <v>19184.92443</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>9576.330470000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>13266.71102</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>70989.96799999999</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>4045.07227</v>
+        <v>5743.8998</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>2921.55706</v>
+        <v>6054.834470000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>31363.19862</v>
+        <v>45614.09190000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>2854.783730000001</v>
+        <v>4645.12387</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>3975.03359</v>
+        <v>4730.173110000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>17568.56275</v>
+        <v>25104.57541</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>6819.44329</v>
+        <v>10233.03698</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>23829.893</v>
+        <v>41493.16206</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>5169.7869</v>
+        <v>10713.37849</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>48147.83318</v>
+        <v>55485.28215000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>27451.62404</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>30612.03269</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>27483.131</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>48.41052</v>
@@ -2792,7 +2933,7 @@
         <v>1.6927</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>91.09336</v>
+        <v>100.2073</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>114.80669</v>
@@ -2807,7 +2948,7 @@
         <v>89.30974000000001</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>107.32259</v>
+        <v>409.93824</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>77.38289</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>421.33293</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>189.873</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>188.49704</v>
+        <v>265.44663</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>616.36189</v>
+        <v>950.9108299999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>578.64268</v>
+        <v>808.25938</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>129.6691</v>
+        <v>130.0327</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>458.1217</v>
+        <v>459.61536</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>100.67308</v>
+        <v>114.63996</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>291.3823600000001</v>
+        <v>293.63689</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>78.11681</v>
+        <v>424.16755</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>170.3979</v>
+        <v>957.68493</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>932.3174799999999</v>
+        <v>1760.98781</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>929.19437</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>930.6273200000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1382.635</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>3808.16471</v>
+        <v>5430.04265</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>2132.46136</v>
+        <v>4931.18983</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>30782.86324</v>
+        <v>44804.13982</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>2634.02127</v>
+        <v>4414.88387</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>3402.1052</v>
+        <v>4155.75106</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>17461.91967</v>
+        <v>24983.96545</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>6323.35193</v>
+        <v>9734.69109</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>23662.46645</v>
+        <v>40979.68476999999</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>4892.06641</v>
+        <v>9345.75532</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>47138.13281</v>
+        <v>53646.91145</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>26101.09674</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>29260.07244</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>25910.623</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1021.51714</v>
+        <v>-6239.250639999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>2253.3048</v>
+        <v>-13152.35927</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-29122.45403</v>
+        <v>-69491.30342</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-1383.96915</v>
+        <v>-2918.95949</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-5944.75689</v>
+        <v>-6270.2393</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-5874.00029</v>
+        <v>-21041.84521</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-10325.26295</v>
+        <v>-12813.44456</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-41154.76433</v>
+        <v>-43159.69225</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-14021.48239</v>
+        <v>9788.903700000001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-3597.5806</v>
+        <v>-30733.29044</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-15409.51833</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-4001.70565</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>102740.592</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>2584.15053</v>
+        <v>3184.50163</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>2690.36906</v>
+        <v>5394.38506</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>3704.65046</v>
+        <v>4310.25481</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>3317.11444</v>
+        <v>4371.35904</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>3552.69404</v>
+        <v>4769.208100000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>4828.933180000001</v>
+        <v>5808.69683</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>4418.64069</v>
+        <v>6135.281359999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>4343.461520000001</v>
+        <v>9007.25424</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>4742.82206</v>
+        <v>5989.63564</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>12138.37807</v>
+        <v>15698.04258</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>11420.85892</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>15814.64441</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>31838.44</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-1562.63339</v>
+        <v>-9423.752269999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-437.06426</v>
+        <v>-18546.74433</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-32827.10449000001</v>
+        <v>-73801.55823000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-4701.08359</v>
+        <v>-7290.31853</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-9497.450929999999</v>
+        <v>-11039.4474</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-10702.93347</v>
+        <v>-26850.54204</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-14743.90364</v>
+        <v>-18948.72592</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-45498.22585</v>
+        <v>-52166.94649</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-18764.30445</v>
+        <v>3799.268059999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-15735.95867</v>
+        <v>-46431.33302</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-26830.37725</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-19816.35006</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>70902.152</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1009</v>
+        <v>1083</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1109</v>
+        <v>1190</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1137</v>
+        <v>1226</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1177</v>
+        <v>1291</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1320</v>
+        <v>1450</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1421</v>
+        <v>1565</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1558</v>
+        <v>1754</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1707</v>
+        <v>1935</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1779</v>
+        <v>2017</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2067</v>
+        <v>2279</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2464</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>